--- a/FoodPreference.xlsx
+++ b/FoodPreference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\助教\2022 数据挖掘上机\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16591\Desktop\Github\AssociationRuleAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0EE833-2C9E-4F38-9C8C-0B6C6D4ED99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CD84A2-1C15-45E9-9AD8-F493B2B712F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5ABA6761-03A1-4247-8034-2B6E6E0D7FD5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{5ABA6761-03A1-4247-8034-2B6E6E0D7FD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,105 +35,107 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>酸奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泡面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火腿肠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米饭</t>
-  </si>
-  <si>
-    <t>面条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饺子</t>
-  </si>
-  <si>
-    <t>粗粮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔬菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菌类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薯片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饼干</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>糖果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶叶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳酸饮料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果汁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咖啡</t>
+    <t>rice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noodle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dumpling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fungus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>egg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shrimp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chicken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>milk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yogurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>milktea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbondrink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coffee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantnoodle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ham</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +194,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,7 +204,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -211,14 +212,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Comma" xfId="5" xr:uid="{44339F93-D393-485C-92F5-A1ED03531AD3}"/>
     <cellStyle name="Comma [0]" xfId="6" xr:uid="{2084E26B-1B03-4FB4-983F-DBAF366E43B2}"/>
     <cellStyle name="Currency" xfId="3" xr:uid="{CA57AF5A-0E9E-4600-B928-0B242CC9421E}"/>
     <cellStyle name="Currency [0]" xfId="4" xr:uid="{7CFCB0A6-6F70-4E21-A958-203F77722F1B}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{0445F79C-5BBD-4F60-800D-1BB62D01FB6B}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" xr:uid="{251D8E9D-7F35-4847-833F-8F74CA635AFC}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{7D0E86C6-5A11-4B15-810A-799FEF570732}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -534,92 +534,92 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Z12"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0</v>
       </c>
